--- a/public/data/soil/soil_table_namibia.xlsx
+++ b/public/data/soil/soil_table_namibia.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>560502.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.995</v>
+        <v>7.769</v>
       </c>
     </row>
     <row r="3">
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>524570</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.895</v>
+        <v>5.592</v>
       </c>
     </row>
     <row r="4">
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>703901.3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.33</v>
+        <v>4.059</v>
       </c>
     </row>
     <row r="5">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6966.8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.314</v>
+        <v>1.283</v>
       </c>
     </row>
     <row r="6">
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>166896.7</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.358</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="7">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>37505.3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.015</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1177.9</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="9">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>156981.4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>5.907</v>
+        <v>7.632</v>
       </c>
     </row>
     <row r="10">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163668.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.745</v>
+        <v>5.322</v>
       </c>
     </row>
     <row r="11">
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>116117.8</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2.378</v>
+        <v>3.358</v>
       </c>
     </row>
     <row r="12">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.053</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="13">
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4096.2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="14">
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>655597.6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>5.738</v>
+        <v>6.408</v>
       </c>
     </row>
     <row r="16">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>845159</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.381</v>
+        <v>8.099</v>
       </c>
     </row>
     <row r="17">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>150751</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.106</v>
+        <v>2.824</v>
       </c>
     </row>
     <row r="18">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7420.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.402</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="19">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>251120.3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.476</v>
+        <v>4.575</v>
       </c>
     </row>
     <row r="20">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9028.8</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.597</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="21">
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1011.6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>62891.1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.933</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>16.899</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="22">
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3161.9</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45794.4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.873</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>15.88</v>
+        <v>17.586</v>
       </c>
     </row>
     <row r="23">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>863.5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>70415.7</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.513</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>9.621</v>
+        <v>15.284</v>
       </c>
     </row>
     <row r="24">
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>551.6</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>48501.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.471</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>9.761</v>
+        <v>13.003</v>
       </c>
     </row>
     <row r="25">
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2832.7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43092.6</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.072</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.111</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="26">
@@ -1817,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>94.4</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>45642.6</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>12.021</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="27">
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1951.8</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>8345.6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.462</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.316</v>
+        <v>7.755</v>
       </c>
     </row>
     <row r="28">
@@ -1887,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1385.6</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23159.6</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.872</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.641</v>
+        <v>6.695</v>
       </c>
     </row>
     <row r="29">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1592.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.244</v>
+        <v>3.623</v>
       </c>
     </row>
     <row r="30">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>463.9</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.254</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="33">
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3177.6</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.493</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="38">
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>601030.6</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>13.569</v>
+        <v>15.353</v>
       </c>
     </row>
     <row r="39">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.492</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="40">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>229510</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>15.677</v>
+        <v>20.387</v>
       </c>
     </row>
     <row r="41">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>206736.1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>4.934</v>
+        <v>7.294</v>
       </c>
     </row>
     <row r="42">
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>252877.5</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>3.963</v>
+        <v>5.695</v>
       </c>
     </row>
     <row r="43">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>237295.7</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>13.275</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="44">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>77921.3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3.388</v>
+        <v>4.482</v>
       </c>
     </row>
     <row r="45">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>229906.2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>5.845</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="46">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33826.8</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>15.554</v>
+        <v>17.699</v>
       </c>
     </row>
     <row r="47">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>13093.9</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>20.297</v>
+        <v>29.722</v>
       </c>
     </row>
     <row r="48">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>12553.6</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>15.924</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="49">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>35457.4</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>12.345</v>
+        <v>14.861</v>
       </c>
     </row>
     <row r="50">
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>7412</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>12.511</v>
+        <v>13.255</v>
       </c>
     </row>
     <row r="51">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>34086</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>14.237</v>
+        <v>24.207</v>
       </c>
     </row>
     <row r="52">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>24077</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>26.665</v>
+        <v>26.918</v>
       </c>
     </row>
     <row r="53">
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>10983</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>5.943</v>
+        <v>10.964</v>
       </c>
     </row>
     <row r="54">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>19892.3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>18.528</v>
+        <v>21.779</v>
       </c>
     </row>
     <row r="55">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>13118.1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>17.317</v>
+        <v>22.685</v>
       </c>
     </row>
     <row r="56">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>12637.9</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>20.398</v>
+        <v>16.719</v>
       </c>
     </row>
     <row r="57">
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>250948.2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>8.544</v>
+        <v>8.459</v>
       </c>
     </row>
     <row r="58">
@@ -2937,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1802.7</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>106024.5</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>3.501</v>
+        <v>3.966</v>
       </c>
     </row>
     <row r="59">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>98930.5</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>3.283</v>
+        <v>3.365</v>
       </c>
     </row>
     <row r="60">
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1436.4</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>234160.3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3019,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4.932</v>
+        <v>5.517</v>
       </c>
     </row>
     <row r="61">
@@ -3042,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>69.5</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>75089.2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>3.653</v>
+        <v>4.044</v>
       </c>
     </row>
     <row r="62">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1283.7</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>52863.4</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.126</v>
+        <v>0.134</v>
       </c>
       <c r="K62" t="n">
-        <v>2.104</v>
+        <v>4.714</v>
       </c>
     </row>
     <row r="63">
@@ -3112,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>669.2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>263648.8</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3124,10 +3124,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>6.404</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="64">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>14432.2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>11.282</v>
+        <v>10.798</v>
       </c>
     </row>
     <row r="65">
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>13686</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>8.78</v>
+        <v>6.854</v>
       </c>
     </row>
     <row r="66">
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>25295.3</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>28.071</v>
+        <v>30.625</v>
       </c>
     </row>
     <row r="67">
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>29743.8</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>15.66</v>
+        <v>16.557</v>
       </c>
     </row>
     <row r="68">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>71041.8</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>12.369</v>
+        <v>15.668</v>
       </c>
     </row>
     <row r="69">
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>26107</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>25.175</v>
+        <v>32.632</v>
       </c>
     </row>
     <row r="70">
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>23832.3</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>11.23</v>
+        <v>11.504</v>
       </c>
     </row>
     <row r="71">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>9635.7</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>5.45</v>
+        <v>6.653</v>
       </c>
     </row>
     <row r="72">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>54075.3</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>10.492</v>
+        <v>8.786</v>
       </c>
     </row>
     <row r="73">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>40532.2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>29.464</v>
+        <v>32.059</v>
       </c>
     </row>
     <row r="74">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>70488.3</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>12.722</v>
+        <v>16.993</v>
       </c>
     </row>
     <row r="75">
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>58329</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>21.334</v>
+        <v>23.013</v>
       </c>
     </row>
     <row r="76">
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>9261.2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>14.606</v>
+        <v>11.257</v>
       </c>
     </row>
     <row r="77">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>12330.7</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>10.248</v>
+        <v>15.104</v>
       </c>
     </row>
     <row r="78">
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>14703.2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>2.544</v>
+        <v>4.664</v>
       </c>
     </row>
     <row r="79">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>11624.8</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>3.707</v>
+        <v>4.057</v>
       </c>
     </row>
     <row r="80">
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>8167.7</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>13.77</v>
+        <v>11.187</v>
       </c>
     </row>
     <row r="81">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>7994.7</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>12.463</v>
+        <v>12.507</v>
       </c>
     </row>
     <row r="82">
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>5174.2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>5.337</v>
+        <v>12.699</v>
       </c>
     </row>
     <row r="83">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>5728.5</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>3.457</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="84">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>10285.9</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>9.532</v>
+        <v>5.731</v>
       </c>
     </row>
     <row r="85">
@@ -3882,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>64840.6</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>2.889</v>
+        <v>4.656</v>
       </c>
     </row>
     <row r="86">
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>82066.5</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>20.633</v>
+        <v>21.484</v>
       </c>
     </row>
     <row r="87">
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>68454.6</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>4.616</v>
+        <v>7.825</v>
       </c>
     </row>
     <row r="88">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>55003.4</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>13.958</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="89">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>8573.1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>6.461</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="90">
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>47417.5</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>19.879</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="91">
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>97133.3</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>20.395</v>
+        <v>23.157</v>
       </c>
     </row>
     <row r="92">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>17158</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>11.663</v>
+        <v>14.043</v>
       </c>
     </row>
     <row r="93">
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>13625.5</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>15.759</v>
+        <v>20.459</v>
       </c>
     </row>
     <row r="94">
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>22180.1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>11.528</v>
+        <v>14.146</v>
       </c>
     </row>
     <row r="95">
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>3793.4</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.45</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="96">
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>137017.5</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>7.066</v>
+        <v>9.173</v>
       </c>
     </row>
     <row r="97">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>62457.7</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>2.604</v>
+        <v>3.788</v>
       </c>
     </row>
     <row r="98">
@@ -4337,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1366</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>167624</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4349,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>9.588</v>
+        <v>9.725</v>
       </c>
     </row>
     <row r="99">
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>404768.8</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>8.356</v>
+        <v>11.621</v>
       </c>
     </row>
     <row r="100">
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>176860.8</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>5.34</v>
+        <v>5.993</v>
       </c>
     </row>
     <row r="101">
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>90910</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>2.757</v>
+        <v>2.945</v>
       </c>
     </row>
     <row r="102">
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>171263.6</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>5.942</v>
+        <v>7.793</v>
       </c>
     </row>
     <row r="103">
@@ -4512,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>51778.5</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4524,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>11.307</v>
+        <v>10.258</v>
       </c>
     </row>
     <row r="104">
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>39242.4</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>13.804</v>
+        <v>16.309</v>
       </c>
     </row>
     <row r="105">
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>2336.5</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.71</v>
+        <v>2.548</v>
       </c>
     </row>
     <row r="106">
@@ -4617,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>4912.8</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>31163.8</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4629,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.183</v>
+        <v>0.448</v>
       </c>
       <c r="K106" t="n">
-        <v>4.934</v>
+        <v>8.017</v>
       </c>
     </row>
     <row r="107">
@@ -4652,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>283.7</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>57031</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4664,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>10.709</v>
+        <v>10.619</v>
       </c>
     </row>
     <row r="108">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>24075.2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>7.617</v>
+        <v>6.39</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_namibia.xlsx
+++ b/public/data/soil/soil_table_namibia.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1757.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>344.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>5429.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6531.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4678.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7615.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6133.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3909</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3394.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6488.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2864.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>109.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>472.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>20553.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>15794.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>14475.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>19463.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>4218.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>32925.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>16814.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>15574.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>14351.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>13845.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>14207.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>14101.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>11923.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>20901.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>12052.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>6743.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>22186.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>10541.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>4652.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>9005.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>17588.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>5303</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>9184.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>9010</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>19850.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>5381.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4115.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>17145.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>13856.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>8376.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2735.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>4414.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>4756.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2237.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>4827.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2787</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>3007.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>3582.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>5294.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>4068.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1665.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>151.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>188.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>460.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>111.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>257.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1135.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4617,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>3023.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1544.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>588.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
